--- a/jpcore-r4/feature/swg3-OrganizationExtensionCoding/StructureDefinition-jp-practitionerrole.xlsx
+++ b/jpcore-r4/feature/swg3-OrganizationExtensionCoding/StructureDefinition-jp-practitionerrole.xlsx
@@ -615,7 +615,7 @@
 人は複数の役割を持つ場合がある。
 医師、看護職員、薬剤師、放射線技師、情報職員といった職種を格納する。
 以下のコード表を作成する。
-http://jpfhir.jp/fhir/Common/CodeSystem/JP_PractitionerRoleCodes_CS
+http://jpfhir.jp/fhir/Common/CodeSystem/JP_PractitionerRole_CS
 SS-MIX2ではJHSR004 医療従事者の職種コードを採用
 コード 名称
 DR-01 依頼医師
@@ -631,7 +631,7 @@
 プラクティショナーがどのような権限を持っているのかを知る必要がある - 何ができるのか？</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedurePerformerRoleCodes_VS</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedurePerformerRole_VS</t>
   </si>
   <si>
     <t>PRD-1 / STF-18  / PRA-3  / PRT-4  / ROL-3 / ORC-12 / OBR-16 / PV1-7 / PV1-8 / PV1-9 / PV1-17</t>
@@ -1263,7 +1263,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="43.25390625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.72265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="64.07421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
